--- a/logbook.xlsx
+++ b/logbook.xlsx
@@ -4,19 +4,65 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="13290" windowHeight="6795"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="13290" windowHeight="6795" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="1" r:id="rId1"/>
     <sheet name="Shortcuts Windows 7" sheetId="2" r:id="rId2"/>
     <sheet name="Run commands" sheetId="3" r:id="rId3"/>
+    <sheet name="Topic Tracker" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jhansi Pailla</author>
+  </authors>
+  <commentList>
+    <comment ref="C63" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Copy the widget directory with the swf and xml file to this path. Make sure these file names have 'widget' suffix.
+Example - HelloWorldModule.xml
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C65" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Create a blank xml file and save as widgetnameModule.xml
+ and add this tag to the xml file
+&lt;configuration&gt;
+    &lt;name&gt;Widgetname&lt;/name&gt;
+&lt;/configuration&gt;
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="535">
   <si>
     <t xml:space="preserve">Installed all flex components required to develop widgets for Esri Flex Application Builder </t>
   </si>
@@ -42,16 +88,7 @@
     <t>Browsed Esri Silverlight Template and Code Gallery for new features to integrate</t>
   </si>
   <si>
-    <t>Fullscreen</t>
-  </si>
-  <si>
-    <t>Overview Map</t>
-  </si>
-  <si>
     <t>Magnifier</t>
-  </si>
-  <si>
-    <t>Print</t>
   </si>
   <si>
     <t>DATE</t>
@@ -1440,9 +1477,6 @@
     <t>Installed Subclipse (SVN plugin) for Flash Builder 4.7</t>
   </si>
   <si>
-    <t>To checkout git project</t>
-  </si>
-  <si>
     <t>Clone Git repository</t>
   </si>
   <si>
@@ -1468,13 +1502,730 @@
   </si>
   <si>
     <t>file:///C:/Subversioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SmartSVN </t>
+  </si>
+  <si>
+    <t>for Mac version control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installed ArcGIS Viewer for Silverlight 3.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To add Futura AddIns(Electric Tool, Futura Tools, Navigation tools) manually </t>
+  </si>
+  <si>
+    <t>Copy the xap files from project bin directory to C:\inetpub\wwwroot\Builder\Extensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To update existing Silverlight viewers </t>
+  </si>
+  <si>
+    <t>Copy the xap files from project bin directory to C:\inetpub\wwwroot\Apps\silverlightviwer\Extensions</t>
+  </si>
+  <si>
+    <t>********Still the Futura tool extension is not displayed in the silverlight viewer.*************</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installed TortoiseSVN and linked to local SVN repository </t>
+  </si>
+  <si>
+    <t>To checkout git project(https://github.com/jp106/phonegapsample.git)</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ISSUES</t>
+  </si>
+  <si>
+    <t>Fullscreen,Overview, Magnifier and Print</t>
+  </si>
+  <si>
+    <t>Error publishing map service to ArcGIS 10.1 for Server Workgroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tried Installing AGS 10.1 for Server SP1 </t>
+  </si>
+  <si>
+    <t>Didn't fix the issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uninstalled and installed ArcGIS 10.1 for Server Enterprise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waiting for license file </t>
+  </si>
+  <si>
+    <t>Need to request Esri Tech support to deauthorize AGS101 Server Workgroup</t>
+  </si>
+  <si>
+    <t>AGS 101 for SE authroization file - C:\Program Files\ESRI\License10.1\sysgen\ecp087685517_agsworkgroup101.ecp</t>
+  </si>
+  <si>
+    <t>Save keycodes file under "C:\Program Files\ESRI\License10.1\sysgen" as *.ecp file to create authorization file</t>
+  </si>
+  <si>
+    <t>AGS101 for SW can connect to only SQL Express only</t>
+  </si>
+  <si>
+    <t>UPN-GIS Training from 10.30 to 12.30 and 2.10 -4.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to configure  </t>
+  </si>
+  <si>
+    <t>Reinstalling AGS 101 Enterprise on FTA-JHANSIP</t>
+  </si>
+  <si>
+    <t>Same error</t>
+  </si>
+  <si>
+    <t>Install Adobe Flash Player - debugger version</t>
+  </si>
+  <si>
+    <t>Installed</t>
+  </si>
+  <si>
+    <t>Path of the custom widgets added from the application builder</t>
+  </si>
+  <si>
+    <t>C:\Users\jhansip\AppData\Roaming\com.esri.ags.AppBuilder3.0\Local Store\flexviewer\widgets</t>
+  </si>
+  <si>
+    <t>C:\Users\jhansip\AppData\Roaming\com.esri.ags.AppBuilder3.0\Local Store\modules</t>
+  </si>
+  <si>
+    <t>Eg - HelloWorldModule.xml</t>
+  </si>
+  <si>
+    <t>eg. Directory - Helloworld, Files - HelloWorldWidget.swf and HelloWorldWidget.xml</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>&lt;configuration&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;name&gt;Widgetname&lt;/name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/configuration&gt;</t>
+  </si>
+  <si>
+    <t>Created repositotry on Github for visual Studio projects</t>
+  </si>
+  <si>
+    <t>Git plugin for Visual Studio</t>
+  </si>
+  <si>
+    <t>Install Git Extension</t>
+  </si>
+  <si>
+    <t>Code analysis for Flash Builder 4.7</t>
+  </si>
+  <si>
+    <t>FlexPMD Plugin</t>
+  </si>
+  <si>
+    <t>http://opensource.adobe.com/svn/opensource/flexpmd/plugin/trunk/flex-pmd-eclipse-plugin-site</t>
+  </si>
+  <si>
+    <t>http://opensource.adobe.com/svn/opensource/flexpmd/maven-repository/release/com/adobe/ac/flex-pmd/1.0/flex-pmd-all-in-one-bundle-1.0.1.zip</t>
+  </si>
+  <si>
+    <t>Flex PMD Plugin for eclipse</t>
+  </si>
+  <si>
+    <t>Flex PMD Command line tools</t>
+  </si>
+  <si>
+    <t>Flex coding guidelines</t>
+  </si>
+  <si>
+    <t>Training on learning concepts, tasks and asset tracker configuration with Djay</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Learning Web Map – completely</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.NET Advanced Concepts</t>
+    </r>
+  </si>
+  <si>
+    <t>Going through Asset Tracker code</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Learn Reader – completely</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.NET Framework fundamentals – in depth understanding</t>
+    </r>
+  </si>
+  <si>
+    <t>Going through Freader publisher tool to create FPD files</t>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Current Issues: Redesign the network connectivity export from XML to table based</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delegates &amp; advanced concepts in .NET Framework 3.5, 4.0, 4.5</t>
+    </r>
+  </si>
+  <si>
+    <t>R&amp;D on Esri Flex Builder customization with widgets</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Learn Asset Tracker</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delegates and Asynchronous programming (callbacks and more advanced scenarios)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R&amp;D on Flex: Developing plugins on Flex Builder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.NET Remoting</t>
+    </r>
+  </si>
+  <si>
+    <t>Asset Tracker maybe converted from web application to desktop application</t>
+  </si>
+  <si>
+    <r>
+      <t>e.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WCF</t>
+    </r>
+  </si>
+  <si>
+    <t>Freader issue</t>
+  </si>
+  <si>
+    <t>Learn Geometric Network (internals, Engine level)</t>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OOPS Concepts (and OOAD)</t>
+    </r>
+  </si>
+  <si>
+    <t>Logical &amp; Analytical thinking</t>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Develop a sample C# application using OOPS concepts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Web Application Development with ASP.NET &amp; C#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Learn ASP.NET, web application development</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Learn AJAX, HTML5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sample Application to get complete understanding</t>
+    </r>
+  </si>
+  <si>
+    <t>Training on assetTracker with Suman</t>
+  </si>
+  <si>
+    <t>Training on Reader with Suman</t>
+  </si>
+  <si>
+    <t>Geometric Network</t>
+  </si>
+  <si>
+    <t>Sno.</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Minutes</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>How feature classes participate in network</t>
+  </si>
+  <si>
+    <t>Extra behavior for edges and junctions?</t>
+  </si>
+  <si>
+    <t>edges must connect to other edges at junctions</t>
+  </si>
+  <si>
+    <t>in the network, the flow from one edge to another is transferred through junctions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra behavior such as an awareness that they are topologically connected to each other </t>
+  </si>
+  <si>
+    <t>Simple Edge?</t>
+  </si>
+  <si>
+    <t>resource can be siphoned off or exit the edge at its endpoint.</t>
+  </si>
+  <si>
+    <t>one at each end</t>
+  </si>
+  <si>
+    <t>simple edges are always connected to two junctions</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a new junction is snapped midspan on a simple edge,  that simple edge is physically split into two separate features. </t>
+  </si>
+  <si>
+    <t>just like simple edges, but they also allow resources to be siphoned off along the edge without having to physically split the edge feature</t>
+  </si>
+  <si>
+    <t>Eg. Water lateral in water network</t>
+  </si>
+  <si>
+    <t>Eg. Water main in water network</t>
+  </si>
+  <si>
+    <t>allow midspan connectivity.</t>
+  </si>
+  <si>
+    <t>complex edge remains a single feature</t>
+  </si>
+  <si>
+    <t>Snapping the junction causes the complex edge to be split logically,</t>
+  </si>
+  <si>
+    <t>Complex Edge?</t>
+  </si>
+  <si>
+    <t>User-defined junction?</t>
+  </si>
+  <si>
+    <t>created based on a user's source data when the geometric network is first established.</t>
+  </si>
+  <si>
+    <t>Examples of junctions are service points, fuses, stream gauges, or taps.</t>
+  </si>
+  <si>
+    <t>Orphan junctions</t>
+  </si>
+  <si>
+    <t>simple junction feature class is created along with it called the orphan junction feature class.</t>
+  </si>
+  <si>
+    <t>The name of the orphan junction feature class corresponds to the name of the geometric network appended with _Junctions.</t>
+  </si>
+  <si>
+    <t>is used by the geometric network to maintain network integrity.</t>
+  </si>
+  <si>
+    <t>an orphan junction is inserted at the endpoint of any edge at which a geometrically coincident junction does not already exist in your source data</t>
+  </si>
+  <si>
+    <t>To subsume an orphan junction is to incorporate it into the network by replacing it with a user-defined junction.</t>
+  </si>
+  <si>
+    <t>The orphan junction feature class is deleted when its geometric network is deleted.</t>
+  </si>
+  <si>
+    <t>Logical Network as stored by ArcGIS</t>
+  </si>
+  <si>
+    <t>Edge Table</t>
+  </si>
+  <si>
+    <t>Junction Table</t>
+  </si>
+  <si>
+    <t>Connectivity Table</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Flow is away from source</t>
+  </si>
+  <si>
+    <t>Example - pump station, power generation station</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>Flow is towards sinks</t>
+  </si>
+  <si>
+    <t>Example - water treatment plant and customers</t>
+  </si>
+  <si>
+    <t>features can be sources or sinks, a field called AncillaryRole is added to the feature class</t>
+  </si>
+  <si>
+    <t>to record whether the feature is to act as a source, sink, or neither</t>
+  </si>
+  <si>
+    <t>If not already present, a domain called the AncillaryRoleDomain will be created and associated with the feature classes acting as sources or sinks.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1526,6 +2277,83 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1590,7 +2418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1614,6 +2442,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1626,17 +2483,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1653,6 +2515,214 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10084</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="62862"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9410700" y="10829926"/>
+          <a:ext cx="4001059" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>285751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>336188</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect r="2461" b="19918"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9677401" y="11715751"/>
+          <a:ext cx="2505074" cy="1002937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1476375</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1581150</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>79</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>85</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2757,6 +3827,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22897</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11458575" y="9525"/>
+          <a:ext cx="3190875" cy="2108872"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3043,21 +4156,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" style="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3065,83 +4190,74 @@
         <v>41547</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
+      <c r="C4" s="21" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="C8" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="C9" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="21" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3150,87 +4266,87 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="C22" s="22" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="C22" s="19" t="s">
+    </row>
+    <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="16" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="26" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="C26" s="22" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="22" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="21" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>401</v>
-      </c>
-      <c r="C26" s="19" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="21" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="19" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="22" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="22" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="22" t="s">
         <v>405</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="19" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="19" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="19" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3238,52 +4354,519 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B36" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="21" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="21" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>409</v>
-      </c>
-      <c r="C36" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+      <c r="D39" s="19" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="D38" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="D39" t="s">
+      <c r="C42" s="21" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="21" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B52" s="16" t="s">
         <v>418</v>
       </c>
+      <c r="C52" s="21" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>41550</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="16" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="16" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>41551</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="D60"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>41554</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B62" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="21" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="21" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="21" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="21" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="21" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="21" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B75" s="16" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>487</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>41555</v>
+      </c>
+      <c r="B88" t="s">
+        <v>462</v>
+      </c>
+      <c r="C88"/>
+      <c r="D88" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="E88" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="K88" s="30"/>
+      <c r="L88" s="30"/>
+      <c r="S88" s="30"/>
+      <c r="T88" s="30"/>
+      <c r="U88" s="30"/>
+      <c r="V88" s="30"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>465</v>
+      </c>
+      <c r="C89"/>
+      <c r="D89" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="E89" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="30"/>
+      <c r="S89" s="30"/>
+      <c r="T89" s="30"/>
+      <c r="U89" s="30"/>
+      <c r="V89" s="30"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>468</v>
+      </c>
+      <c r="C90"/>
+      <c r="D90" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="E90" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="30"/>
+      <c r="S90" s="30"/>
+      <c r="T90" s="30"/>
+      <c r="U90" s="30"/>
+      <c r="V90" s="30"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>471</v>
+      </c>
+      <c r="C91"/>
+      <c r="D91" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="E91" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="K91" s="30"/>
+      <c r="L91" s="30"/>
+      <c r="S91" s="30"/>
+      <c r="T91" s="30"/>
+      <c r="U91" s="30"/>
+      <c r="V91" s="30"/>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="E92" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="K92" s="30"/>
+      <c r="L92" s="30"/>
+      <c r="S92" s="30"/>
+      <c r="T92" s="30"/>
+      <c r="U92" s="30"/>
+      <c r="V92" s="30"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>476</v>
+      </c>
+      <c r="C93"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="K93" s="30"/>
+      <c r="L93" s="30"/>
+      <c r="S93" s="30"/>
+      <c r="T93" s="30"/>
+      <c r="U93" s="30"/>
+      <c r="V93" s="30"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>478</v>
+      </c>
+      <c r="C94"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+      <c r="K94" s="30"/>
+      <c r="L94" s="30"/>
+      <c r="S94" s="30"/>
+      <c r="T94" s="30"/>
+      <c r="U94" s="30"/>
+      <c r="V94" s="30"/>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="E95" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="K95" s="30"/>
+      <c r="L95" s="30"/>
+      <c r="S95" s="30"/>
+      <c r="T95" s="30"/>
+      <c r="U95" s="30"/>
+      <c r="V95" s="30"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="E96" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="30"/>
+      <c r="S96" s="30"/>
+      <c r="T96" s="30"/>
+      <c r="U96" s="30"/>
+      <c r="V96" s="30"/>
+    </row>
+    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="2"/>
+      <c r="K97" s="30"/>
+      <c r="L97" s="30"/>
+      <c r="S97" s="30"/>
+      <c r="T97" s="30"/>
+      <c r="U97" s="30"/>
+      <c r="V97" s="30"/>
+    </row>
+    <row r="98" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="K98" s="30"/>
+      <c r="L98" s="30"/>
+      <c r="S98" s="30"/>
+      <c r="T98" s="30"/>
+      <c r="U98" s="30"/>
+      <c r="V98" s="30"/>
+    </row>
+    <row r="99" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="K99" s="30"/>
+      <c r="L99" s="30"/>
+      <c r="S99" s="30"/>
+      <c r="T99" s="30"/>
+      <c r="U99" s="30"/>
+      <c r="V99" s="30"/>
+    </row>
+    <row r="100" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="K100" s="30"/>
+      <c r="L100" s="30"/>
+      <c r="S100" s="30"/>
+      <c r="T100" s="30"/>
+      <c r="U100" s="30"/>
+      <c r="V100" s="30"/>
+    </row>
+    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="K101" s="30"/>
+      <c r="L101" s="30"/>
+      <c r="S101" s="30"/>
+      <c r="T101" s="30"/>
+      <c r="U101" s="30"/>
+      <c r="V101" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3294,9 +4877,90 @@
     <hyperlink ref="C26" r:id="rId5" location="windows"/>
     <hyperlink ref="C31" r:id="rId6"/>
     <hyperlink ref="C32" r:id="rId7" display="Installed SVN for Flash Builder 4.7"/>
+    <hyperlink ref="C78" r:id="rId8"/>
+    <hyperlink ref="C77" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
+  <drawing r:id="rId11"/>
+  <legacyDrawing r:id="rId12"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="1027" r:id="rId13">
+          <objectPr defaultSize="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1476375</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="1027" r:id="rId13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="1028" r:id="rId15">
+          <objectPr defaultSize="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1581150</xdr:colOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="1028" r:id="rId15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Acrobat Document" shapeId="1029" r:id="rId17">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>79</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>942975</xdr:colOff>
+                <xdr:row>85</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Acrobat Document" shapeId="1029" r:id="rId17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -3304,8 +4968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3316,406 +4980,406 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3729,1197 +5393,1197 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>120</v>
+      <c r="A1" s="14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>154</v>
+        <v>150</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>157</v>
+        <v>152</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>162</v>
+        <v>158</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>166</v>
+        <v>162</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>170</v>
+        <v>166</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>144</v>
+        <v>170</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>126</v>
+        <v>175</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>188</v>
+        <v>184</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>190</v>
+        <v>186</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>164</v>
+        <v>192</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>203</v>
+        <v>199</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>206</v>
+        <v>202</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>208</v>
+        <v>204</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>210</v>
+        <v>206</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>212</v>
+        <v>208</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>214</v>
+        <v>210</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>216</v>
+        <v>212</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>220</v>
+        <v>216</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>222</v>
+        <v>218</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>224</v>
+        <v>220</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>227</v>
+        <v>223</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>229</v>
+        <v>225</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>231</v>
+        <v>227</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>220</v>
+        <v>229</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>175</v>
+        <v>230</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>234</v>
+        <v>8</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>236</v>
+        <v>232</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>203</v>
+        <v>234</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>239</v>
+        <v>235</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>241</v>
+        <v>237</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>180</v>
+        <v>239</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>244</v>
+        <v>240</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>248</v>
+        <v>244</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>250</v>
+        <v>246</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>252</v>
+        <v>248</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>254</v>
+        <v>250</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>256</v>
+        <v>252</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>260</v>
+        <v>256</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>142</v>
+        <v>258</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>263</v>
+        <v>259</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>265</v>
+        <v>261</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>267</v>
+        <v>263</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>269</v>
+        <v>265</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>146</v>
+        <v>267</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>274</v>
+        <v>270</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="25"/>
+      <c r="B89" s="13" t="s">
         <v>275</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-      <c r="B89" s="17" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>280</v>
+        <v>276</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="B92" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="B91" s="17" t="s">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="27"/>
+      <c r="B93" s="13" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
-      <c r="B93" s="17" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>287</v>
+        <v>283</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>289</v>
+        <v>285</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>291</v>
+        <v>287</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>293</v>
+        <v>289</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B98" s="17" t="s">
-        <v>168</v>
+        <v>291</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>296</v>
+        <v>292</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>298</v>
+        <v>294</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>300</v>
+        <v>296</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>302</v>
+        <v>298</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>304</v>
+        <v>300</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>172</v>
+        <v>302</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="B105" s="17" t="s">
-        <v>307</v>
+        <v>303</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>309</v>
+        <v>305</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>311</v>
+        <v>307</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="B110" s="17" t="s">
-        <v>317</v>
+        <v>313</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="B111" s="17" t="s">
-        <v>319</v>
+        <v>315</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="B112" s="17" t="s">
-        <v>321</v>
+        <v>317</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="B113" s="17" t="s">
-        <v>323</v>
+        <v>319</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>325</v>
+        <v>321</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="B115" s="17" t="s">
-        <v>327</v>
+        <v>323</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="B116" s="17" t="s">
-        <v>329</v>
+        <v>325</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="B117" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="B118" s="17" t="s">
-        <v>333</v>
+        <v>329</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="B119" s="17" t="s">
-        <v>335</v>
+        <v>331</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="B120" s="17" t="s">
-        <v>201</v>
+        <v>333</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="B121" s="17" t="s">
-        <v>124</v>
+        <v>334</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>339</v>
+        <v>335</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="B123" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="B124" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="B125" s="17" t="s">
-        <v>345</v>
+        <v>341</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="B126" s="17" t="s">
-        <v>347</v>
+        <v>343</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="B127" s="17" t="s">
-        <v>349</v>
+        <v>345</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="B128" s="17" t="s">
-        <v>351</v>
+        <v>347</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="B129" s="17" t="s">
-        <v>353</v>
+        <v>349</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B130" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="B131" s="17" t="s">
-        <v>357</v>
+        <v>353</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="B132" s="17" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="B133" s="17" t="s">
-        <v>361</v>
+        <v>357</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A135" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="B135" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="B134" s="17" t="s">
+    </row>
+    <row r="136" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A136" s="27"/>
+      <c r="B136" s="13" t="s">
         <v>363</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="B135" s="17" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A136" s="14"/>
-      <c r="B136" s="17" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="B137" s="17" t="s">
-        <v>368</v>
+        <v>364</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="B138" s="17" t="s">
-        <v>370</v>
+        <v>366</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="B139" s="17" t="s">
-        <v>248</v>
+        <v>368</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="B140" s="17" t="s">
-        <v>373</v>
+        <v>369</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="B141" s="17" t="s">
-        <v>375</v>
+        <v>371</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="B142" s="17" t="s">
-        <v>377</v>
+        <v>373</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="B143" s="17" t="s">
-        <v>170</v>
+        <v>375</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="B144" s="17" t="s">
-        <v>380</v>
+        <v>376</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="B145" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="B146" s="17" t="s">
-        <v>384</v>
+        <v>380</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="B147" s="17" t="s">
-        <v>386</v>
+        <v>382</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="B148" s="17" t="s">
-        <v>388</v>
+        <v>384</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="B149" s="17" t="s">
-        <v>390</v>
+        <v>386</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="B150" s="17" t="s">
-        <v>392</v>
+        <v>388</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -4940,4 +6604,217 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" t="s">
+        <v>500</v>
+      </c>
+      <c r="E5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>502</v>
+      </c>
+      <c r="E6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>511</v>
+      </c>
+      <c r="D8" t="s">
+        <v>505</v>
+      </c>
+      <c r="E8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>512</v>
+      </c>
+      <c r="D12" t="s">
+        <v>513</v>
+      </c>
+      <c r="E12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>515</v>
+      </c>
+      <c r="D14" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>522</v>
+      </c>
+      <c r="D20" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>526</v>
+      </c>
+      <c r="D23" t="s">
+        <v>527</v>
+      </c>
+      <c r="E23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>529</v>
+      </c>
+      <c r="D24" t="s">
+        <v>530</v>
+      </c>
+      <c r="E24" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>532</v>
+      </c>
+      <c r="E25" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/logbook.xlsx
+++ b/logbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="13290" windowHeight="6795" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="13290" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="543">
   <si>
     <t xml:space="preserve">Installed all flex components required to develop widgets for Esri Flex Application Builder </t>
   </si>
@@ -2219,6 +2219,30 @@
   </si>
   <si>
     <t>If not already present, a domain called the AncillaryRoleDomain will be created and associated with the feature classes acting as sources or sinks.</t>
+  </si>
+  <si>
+    <t>Read hyperlink from attribute and display</t>
+  </si>
+  <si>
+    <t>New tool for futura webmap</t>
+  </si>
+  <si>
+    <t>R&amp;D  for flash builder</t>
+  </si>
+  <si>
+    <t>Use flex library project to create swc files and use in air or flex projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start the package name with namespace </t>
+  </si>
+  <si>
+    <t>in script import with the namespace</t>
+  </si>
+  <si>
+    <t>for use in layout create xmlns="namespace.*"</t>
+  </si>
+  <si>
+    <t>Namespaces!!!!!</t>
   </si>
 </sst>
 </file>
@@ -2471,18 +2495,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
@@ -2498,6 +2510,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3839,8 +3863,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>22897</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>403897</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4157,11 +4181,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4618,255 +4642,280 @@
         <v>462</v>
       </c>
       <c r="C88"/>
-      <c r="D88" s="28" t="s">
+      <c r="D88" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="E88" s="29" t="s">
+      <c r="E88" s="25" t="s">
         <v>464</v>
       </c>
       <c r="F88" s="21"/>
       <c r="G88" s="21"/>
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
-      <c r="K88" s="30"/>
-      <c r="L88" s="30"/>
-      <c r="S88" s="30"/>
-      <c r="T88" s="30"/>
-      <c r="U88" s="30"/>
-      <c r="V88" s="30"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="26"/>
+      <c r="S88" s="26"/>
+      <c r="T88" s="26"/>
+      <c r="U88" s="26"/>
+      <c r="V88" s="26"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>465</v>
       </c>
       <c r="C89"/>
-      <c r="D89" s="28" t="s">
+      <c r="D89" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="E89" s="31" t="s">
+      <c r="E89" s="27" t="s">
         <v>467</v>
       </c>
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
-      <c r="K89" s="30"/>
-      <c r="L89" s="30"/>
-      <c r="S89" s="30"/>
-      <c r="T89" s="30"/>
-      <c r="U89" s="30"/>
-      <c r="V89" s="30"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
+      <c r="S89" s="26"/>
+      <c r="T89" s="26"/>
+      <c r="U89" s="26"/>
+      <c r="V89" s="26"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>468</v>
       </c>
       <c r="C90"/>
-      <c r="D90" s="32" t="s">
+      <c r="D90" s="28" t="s">
         <v>469</v>
       </c>
-      <c r="E90" s="31" t="s">
+      <c r="E90" s="27" t="s">
         <v>470</v>
       </c>
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
-      <c r="K90" s="30"/>
-      <c r="L90" s="30"/>
-      <c r="S90" s="30"/>
-      <c r="T90" s="30"/>
-      <c r="U90" s="30"/>
-      <c r="V90" s="30"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="26"/>
+      <c r="S90" s="26"/>
+      <c r="T90" s="26"/>
+      <c r="U90" s="26"/>
+      <c r="V90" s="26"/>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>471</v>
       </c>
       <c r="C91"/>
-      <c r="D91" s="28" t="s">
+      <c r="D91" s="24" t="s">
         <v>472</v>
       </c>
-      <c r="E91" s="31" t="s">
+      <c r="E91" s="27" t="s">
         <v>473</v>
       </c>
       <c r="F91" s="21"/>
       <c r="G91" s="21"/>
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
-      <c r="K91" s="30"/>
-      <c r="L91" s="30"/>
-      <c r="S91" s="30"/>
-      <c r="T91" s="30"/>
-      <c r="U91" s="30"/>
-      <c r="V91" s="30"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="26"/>
+      <c r="S91" s="26"/>
+      <c r="T91" s="26"/>
+      <c r="U91" s="26"/>
+      <c r="V91" s="26"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B92"/>
       <c r="C92"/>
-      <c r="D92" s="28" t="s">
+      <c r="D92" s="24" t="s">
         <v>474</v>
       </c>
-      <c r="E92" s="31" t="s">
+      <c r="E92" s="27" t="s">
         <v>475</v>
       </c>
       <c r="F92" s="21"/>
       <c r="G92" s="21"/>
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
-      <c r="K92" s="30"/>
-      <c r="L92" s="30"/>
-      <c r="S92" s="30"/>
-      <c r="T92" s="30"/>
-      <c r="U92" s="30"/>
-      <c r="V92" s="30"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
+      <c r="S92" s="26"/>
+      <c r="T92" s="26"/>
+      <c r="U92" s="26"/>
+      <c r="V92" s="26"/>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>476</v>
       </c>
       <c r="C93"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="31" t="s">
+      <c r="D93" s="29"/>
+      <c r="E93" s="27" t="s">
         <v>477</v>
       </c>
       <c r="F93" s="21"/>
       <c r="G93" s="21"/>
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
-      <c r="K93" s="30"/>
-      <c r="L93" s="30"/>
-      <c r="S93" s="30"/>
-      <c r="T93" s="30"/>
-      <c r="U93" s="30"/>
-      <c r="V93" s="30"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
+      <c r="S93" s="26"/>
+      <c r="T93" s="26"/>
+      <c r="U93" s="26"/>
+      <c r="V93" s="26"/>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>478</v>
       </c>
       <c r="C94"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="31"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="27"/>
       <c r="F94" s="21"/>
       <c r="G94" s="21"/>
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
-      <c r="K94" s="30"/>
-      <c r="L94" s="30"/>
-      <c r="S94" s="30"/>
-      <c r="T94" s="30"/>
-      <c r="U94" s="30"/>
-      <c r="V94" s="30"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="26"/>
+      <c r="S94" s="26"/>
+      <c r="T94" s="26"/>
+      <c r="U94" s="26"/>
+      <c r="V94" s="26"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B95"/>
       <c r="C95"/>
-      <c r="D95" s="33" t="s">
+      <c r="D95" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="E95" s="29" t="s">
+      <c r="E95" s="25" t="s">
         <v>480</v>
       </c>
       <c r="F95" s="21"/>
       <c r="G95" s="21"/>
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
-      <c r="K95" s="30"/>
-      <c r="L95" s="30"/>
-      <c r="S95" s="30"/>
-      <c r="T95" s="30"/>
-      <c r="U95" s="30"/>
-      <c r="V95" s="30"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="26"/>
+      <c r="S95" s="26"/>
+      <c r="T95" s="26"/>
+      <c r="U95" s="26"/>
+      <c r="V95" s="26"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B96"/>
       <c r="C96"/>
-      <c r="D96" s="33" t="s">
+      <c r="D96" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="E96" s="31" t="s">
+      <c r="E96" s="27" t="s">
         <v>482</v>
       </c>
       <c r="F96" s="21"/>
       <c r="G96" s="21"/>
       <c r="H96" s="21"/>
       <c r="I96" s="21"/>
-      <c r="K96" s="30"/>
-      <c r="L96" s="30"/>
-      <c r="S96" s="30"/>
-      <c r="T96" s="30"/>
-      <c r="U96" s="30"/>
-      <c r="V96" s="30"/>
-    </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="K96" s="26"/>
+      <c r="L96" s="26"/>
+      <c r="S96" s="26"/>
+      <c r="T96" s="26"/>
+      <c r="U96" s="26"/>
+      <c r="V96" s="26"/>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
-      <c r="E97" s="31"/>
+      <c r="E97" s="27"/>
       <c r="F97" s="2"/>
-      <c r="K97" s="30"/>
-      <c r="L97" s="30"/>
-      <c r="S97" s="30"/>
-      <c r="T97" s="30"/>
-      <c r="U97" s="30"/>
-      <c r="V97" s="30"/>
-    </row>
-    <row r="98" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B98"/>
-      <c r="C98"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="26"/>
+      <c r="S97" s="26"/>
+      <c r="T97" s="26"/>
+      <c r="U97" s="26"/>
+      <c r="V97" s="26"/>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>41556</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>535</v>
+      </c>
       <c r="D98"/>
-      <c r="E98" s="29" t="s">
+      <c r="E98" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="K98" s="30"/>
-      <c r="L98" s="30"/>
-      <c r="S98" s="30"/>
-      <c r="T98" s="30"/>
-      <c r="U98" s="30"/>
-      <c r="V98" s="30"/>
-    </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B99"/>
-      <c r="C99"/>
+      <c r="K98" s="26"/>
+      <c r="L98" s="26"/>
+      <c r="S98" s="26"/>
+      <c r="T98" s="26"/>
+      <c r="U98" s="26"/>
+      <c r="V98" s="26"/>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>537</v>
+      </c>
+      <c r="C99" t="s">
+        <v>538</v>
+      </c>
       <c r="D99"/>
-      <c r="E99" s="31" t="s">
+      <c r="E99" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="K99" s="30"/>
-      <c r="L99" s="30"/>
-      <c r="S99" s="30"/>
-      <c r="T99" s="30"/>
-      <c r="U99" s="30"/>
-      <c r="V99" s="30"/>
-    </row>
-    <row r="100" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="K99" s="26"/>
+      <c r="L99" s="26"/>
+      <c r="S99" s="26"/>
+      <c r="T99" s="26"/>
+      <c r="U99" s="26"/>
+      <c r="V99" s="26"/>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B100"/>
-      <c r="C100"/>
+      <c r="C100" t="s">
+        <v>539</v>
+      </c>
       <c r="D100"/>
-      <c r="E100" s="31" t="s">
+      <c r="E100" s="27" t="s">
         <v>485</v>
       </c>
-      <c r="K100" s="30"/>
-      <c r="L100" s="30"/>
-      <c r="S100" s="30"/>
-      <c r="T100" s="30"/>
-      <c r="U100" s="30"/>
-      <c r="V100" s="30"/>
-    </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="K100" s="26"/>
+      <c r="L100" s="26"/>
+      <c r="S100" s="26"/>
+      <c r="T100" s="26"/>
+      <c r="U100" s="26"/>
+      <c r="V100" s="26"/>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B101"/>
-      <c r="C101"/>
+      <c r="C101" t="s">
+        <v>540</v>
+      </c>
       <c r="D101"/>
-      <c r="E101" s="31" t="s">
+      <c r="E101" s="27" t="s">
         <v>486</v>
       </c>
-      <c r="K101" s="30"/>
-      <c r="L101" s="30"/>
-      <c r="S101" s="30"/>
-      <c r="T101" s="30"/>
-      <c r="U101" s="30"/>
-      <c r="V101" s="30"/>
+      <c r="K101" s="26"/>
+      <c r="L101" s="26"/>
+      <c r="S101" s="26"/>
+      <c r="T101" s="26"/>
+      <c r="U101" s="26"/>
+      <c r="V101" s="26"/>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C102" s="21" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B103" s="16" t="s">
+        <v>542</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6089,7 +6138,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="24" t="s">
+      <c r="A88" s="30" t="s">
         <v>273</v>
       </c>
       <c r="B88" s="13" t="s">
@@ -6097,7 +6146,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="25"/>
+      <c r="A89" s="31"/>
       <c r="B89" s="13" t="s">
         <v>275</v>
       </c>
@@ -6119,7 +6168,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="26" t="s">
+      <c r="A92" s="32" t="s">
         <v>280</v>
       </c>
       <c r="B92" s="13" t="s">
@@ -6127,7 +6176,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="27"/>
+      <c r="A93" s="33"/>
       <c r="B93" s="13" t="s">
         <v>282</v>
       </c>
@@ -6461,7 +6510,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="26" t="s">
+      <c r="A135" s="32" t="s">
         <v>361</v>
       </c>
       <c r="B135" s="13" t="s">
@@ -6469,7 +6518,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A136" s="27"/>
+      <c r="A136" s="33"/>
       <c r="B136" s="13" t="s">
         <v>363</v>
       </c>
@@ -6610,8 +6659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6619,7 +6668,7 @@
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.85546875" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6632,14 +6681,14 @@
       <c r="C1" t="s">
         <v>493</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="16" t="s">
         <v>492</v>
       </c>
       <c r="E1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6649,7 +6698,7 @@
       <c r="C2" t="s">
         <v>494</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="16" t="s">
         <v>498</v>
       </c>
     </row>
@@ -6657,20 +6706,20 @@
       <c r="C3" t="s">
         <v>495</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="16" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D4" s="16" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>499</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="16" t="s">
         <v>500</v>
       </c>
       <c r="E5" t="s">
@@ -6678,23 +6727,23 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+      <c r="D6" s="16" t="s">
         <v>502</v>
       </c>
       <c r="E6" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D7" s="16" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>511</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="16" t="s">
         <v>505</v>
       </c>
       <c r="E8" t="s">
@@ -6702,61 +6751,61 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+      <c r="D9" s="16" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+      <c r="D10" s="16" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D11" s="16" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>512</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="16" t="s">
         <v>513</v>
       </c>
       <c r="E12" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>515</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="16" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D15" s="16" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" s="16" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
+    <row r="17" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D17" s="16" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+    <row r="18" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D18" s="16" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+    <row r="19" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D19" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -6764,17 +6813,17 @@
       <c r="C20" t="s">
         <v>522</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="16" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+      <c r="D21" s="16" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+      <c r="D22" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -6782,7 +6831,7 @@
       <c r="C23" t="s">
         <v>526</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="16" t="s">
         <v>527</v>
       </c>
       <c r="E23" t="s">
@@ -6793,28 +6842,29 @@
       <c r="C24" t="s">
         <v>529</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="16" t="s">
         <v>530</v>
       </c>
       <c r="E24" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+    <row r="25" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D25" s="16" t="s">
         <v>532</v>
       </c>
       <c r="E25" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
+    <row r="26" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D26" s="16" t="s">
         <v>534</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/logbook.xlsx
+++ b/logbook.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="569">
   <si>
     <t xml:space="preserve">Installed all flex components required to develop widgets for Esri Flex Application Builder </t>
   </si>
@@ -2244,12 +2244,101 @@
   <si>
     <t>Namespaces!!!!!</t>
   </si>
+  <si>
+    <t>Creating installer for visual studio projects</t>
+  </si>
+  <si>
+    <t>creating installer packages for flex applications using export release build in flash builder 4.7</t>
+  </si>
+  <si>
+    <t>WCF datacontracts, service contracts and data members</t>
+  </si>
+  <si>
+    <t>windows workflow foundation</t>
+  </si>
+  <si>
+    <t>samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esri.arcgis.extensibility </t>
+  </si>
+  <si>
+    <t>arcgis extensibility sdk for silverlight</t>
+  </si>
+  <si>
+    <t>Microsoft Visual Studio template for the ArcGIS Viewer for Silverlight</t>
+  </si>
+  <si>
+    <t>Debugging the Addin in viewer and Application builder</t>
+  </si>
+  <si>
+    <t>Debugging in the Application Builder by attaching to process</t>
+  </si>
+  <si>
+    <t>Debugging using the Viewer website project</t>
+  </si>
+  <si>
+    <t>Able to debug in 32 bit IE browser</t>
+  </si>
+  <si>
+    <t>Cannot debug in firefox</t>
+  </si>
+  <si>
+    <t>The AGS 101 map service issue with geometric network error fixed</t>
+  </si>
+  <si>
+    <t>Install futuragisserversetup from \\gisdev\Deployment\FuturaSystems\FuturaGIS\3.1\3.1.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These are 64 bit dll's, feature class extensions used by geometric network </t>
+  </si>
+  <si>
+    <t>Installed under C:\Program Files\Futura Systems\FuturaGIS\Bin</t>
+  </si>
+  <si>
+    <t>Error 20019: Layer is being published with custom class extensions</t>
+  </si>
+  <si>
+    <t>Install FuturWebmap with installer</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>         Applying a feature class extension</t>
+    </r>
+  </si>
+  <si>
+    <t>Apply class extension review</t>
+  </si>
+  <si>
+    <t>*******Review*******</t>
+  </si>
+  <si>
+    <t>Futura.WebMap.Setup from \\gisdev\Deployment\FuturaSystems\FuturaWebMap\3.0\3.0.2.1</t>
+  </si>
+  <si>
+    <t>File that is updated of the custom extensions in silverlight application builder</t>
+  </si>
+  <si>
+    <t>C:\inetpub\wwwroot\Builder\App_Data\Extensions.xml</t>
+  </si>
+  <si>
+    <t>Error installing - Installation incomplete</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2378,6 +2467,12 @@
       <color theme="6" tint="-0.499984740745262"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2743,6 +2838,194 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1876194</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>323811</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="24393525"/>
+          <a:ext cx="1847619" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3667126</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>388347</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144001" y="26069925"/>
+          <a:ext cx="2864846" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>233034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="23462" r="50983"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9734551" y="28279725"/>
+          <a:ext cx="2209800" cy="718809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>6885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>371341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11972925" y="28391385"/>
+          <a:ext cx="2647950" cy="364456"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1704975</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28010</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>95055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect t="38317"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7181850" y="28870275"/>
+          <a:ext cx="2637860" cy="561780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4181,11 +4464,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V103"/>
+  <dimension ref="A1:V123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4750,7 +5033,9 @@
         <v>476</v>
       </c>
       <c r="C93"/>
-      <c r="D93" s="29"/>
+      <c r="D93" s="24" t="s">
+        <v>562</v>
+      </c>
       <c r="E93" s="27" t="s">
         <v>477</v>
       </c>
@@ -4917,6 +5202,116 @@
         <v>542</v>
       </c>
     </row>
+    <row r="104" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B104" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B105" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>41557</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B107" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="C107" s="23" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B108" s="16" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B110" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C111" s="21" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B113" s="16" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B114" s="16" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B115" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C116" s="21" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B118" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B119" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B122" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>564</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B20" r:id="rId1"/>
@@ -4928,16 +5323,19 @@
     <hyperlink ref="C32" r:id="rId7" display="Installed SVN for Flash Builder 4.7"/>
     <hyperlink ref="C78" r:id="rId8"/>
     <hyperlink ref="C77" r:id="rId9"/>
+    <hyperlink ref="C110" r:id="rId10" location="/Visual_Studio_template/01770000000w000000/"/>
+    <hyperlink ref="B107" r:id="rId11"/>
+    <hyperlink ref="C107" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
-  <drawing r:id="rId11"/>
-  <legacyDrawing r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
+  <drawing r:id="rId14"/>
+  <legacyDrawing r:id="rId15"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="1027" r:id="rId13">
-          <objectPr defaultSize="0" r:id="rId14">
+        <oleObject progId="Packager Shell Object" shapeId="1027" r:id="rId16">
+          <objectPr defaultSize="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -4956,13 +5354,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="1027" r:id="rId13"/>
+        <oleObject progId="Packager Shell Object" shapeId="1027" r:id="rId16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="1028" r:id="rId15">
-          <objectPr defaultSize="0" r:id="rId16">
+        <oleObject progId="Packager Shell Object" shapeId="1028" r:id="rId18">
+          <objectPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -4981,13 +5379,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="1028" r:id="rId15"/>
+        <oleObject progId="Packager Shell Object" shapeId="1028" r:id="rId18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Acrobat Document" shapeId="1029" r:id="rId17">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId18">
+        <oleObject progId="Acrobat Document" shapeId="1029" r:id="rId20">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -5006,7 +5404,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Acrobat Document" shapeId="1029" r:id="rId17"/>
+        <oleObject progId="Acrobat Document" shapeId="1029" r:id="rId20"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -5017,8 +5415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/logbook.xlsx
+++ b/logbook.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="583">
   <si>
     <t xml:space="preserve">Installed all flex components required to develop widgets for Esri Flex Application Builder </t>
   </si>
@@ -2332,6 +2332,48 @@
   </si>
   <si>
     <t>Error installing - Installation incomplete</t>
+  </si>
+  <si>
+    <t>Asset Tracker with Annie</t>
+  </si>
+  <si>
+    <t>No warning is given when the manage settings under Setup, the value is misspelled</t>
+  </si>
+  <si>
+    <t>http://gisprod/futurawebmap/default.aspx</t>
+  </si>
+  <si>
+    <t>Futura Old Web map (WebADF)</t>
+  </si>
+  <si>
+    <t>http://gisprod/futurawebmap/default.aspx?Layer=TransformerBank&amp;Field=MapNumber&amp;value=199863722578&amp;dt=19314</t>
+  </si>
+  <si>
+    <t>with query string</t>
+  </si>
+  <si>
+    <t>http://gisdev/Apps/FuturaWebMap/?Layer=TransformerBank&amp;Field=MapNumber&amp;value=199863722578&amp;dt=1687</t>
+  </si>
+  <si>
+    <t>Debugging QueryString behavior from Asset Tracker</t>
+  </si>
+  <si>
+    <t>Check for the map services on gisdev to start</t>
+  </si>
+  <si>
+    <t>Test - TransformerBank, MapNumber = 202946731228</t>
+  </si>
+  <si>
+    <t>Futura Tools - Upload to AddIns in Silverlight Application Builder</t>
+  </si>
+  <si>
+    <t>Issue - xap file not copied to wwwroot/Builder/Extensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Futura Search Tool configuration in App Builder - Unable to select a map service to search </t>
+  </si>
+  <si>
+    <t>Documents on orion/common/_Docs</t>
   </si>
 </sst>
 </file>
@@ -3018,6 +3060,170 @@
         <a:xfrm>
           <a:off x="7181850" y="28870275"/>
           <a:ext cx="2637860" cy="561780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361504</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>228494</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9629775" y="31765875"/>
+          <a:ext cx="3571429" cy="847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>78159</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>123518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10782300" y="32651700"/>
+          <a:ext cx="2745159" cy="1761818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3048000</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8524875" y="33108900"/>
+          <a:ext cx="809625" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104300</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>161842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="33213675"/>
+          <a:ext cx="3800000" cy="666667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4464,11 +4670,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V123"/>
+  <dimension ref="A1:V139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5243,17 +5449,17 @@
         <v>550</v>
       </c>
     </row>
-    <row r="113" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B113" s="16" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="114" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="16" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="115" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B115" s="16" t="s">
         <v>553</v>
       </c>
@@ -5261,12 +5467,12 @@
         <v>554</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C116" s="21" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="118" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B118" s="16" t="s">
         <v>556</v>
       </c>
@@ -5277,7 +5483,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="119" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B119" s="16" t="s">
         <v>558</v>
       </c>
@@ -5285,7 +5491,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B121" s="16" t="s">
         <v>561</v>
       </c>
@@ -5296,7 +5502,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="122" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B122" s="16" t="s">
         <v>566</v>
       </c>
@@ -5304,12 +5510,79 @@
         <v>567</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B123" s="16" t="s">
         <v>563</v>
       </c>
       <c r="D123" s="19" t="s">
         <v>564</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>41558</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="16" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C127" s="21" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C130" s="23" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B131" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D132" s="19" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B133" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D135" s="19" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="16" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -5326,16 +5599,17 @@
     <hyperlink ref="C110" r:id="rId10" location="/Visual_Studio_template/01770000000w000000/"/>
     <hyperlink ref="B107" r:id="rId11"/>
     <hyperlink ref="C107" r:id="rId12"/>
+    <hyperlink ref="C130" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
-  <drawing r:id="rId14"/>
-  <legacyDrawing r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
+  <drawing r:id="rId15"/>
+  <legacyDrawing r:id="rId16"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="1027" r:id="rId16">
-          <objectPr defaultSize="0" r:id="rId17">
+        <oleObject progId="Packager Shell Object" shapeId="1027" r:id="rId17">
+          <objectPr defaultSize="0" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -5354,13 +5628,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="1027" r:id="rId16"/>
+        <oleObject progId="Packager Shell Object" shapeId="1027" r:id="rId17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="1028" r:id="rId18">
-          <objectPr defaultSize="0" r:id="rId19">
+        <oleObject progId="Packager Shell Object" shapeId="1028" r:id="rId19">
+          <objectPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -5379,13 +5653,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="1028" r:id="rId18"/>
+        <oleObject progId="Packager Shell Object" shapeId="1028" r:id="rId19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Acrobat Document" shapeId="1029" r:id="rId20">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId21">
+        <oleObject progId="Acrobat Document" shapeId="1029" r:id="rId21">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -5404,7 +5678,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Acrobat Document" shapeId="1029" r:id="rId20"/>
+        <oleObject progId="Acrobat Document" shapeId="1029" r:id="rId21"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
